--- a/ha-asset/01_design/94_メール一覧.xlsx
+++ b/ha-asset/01_design/94_メール一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6395F6-679E-4563-B704-25DE3449C032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052E613C-EE6C-44D1-8524-663527630DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="525" windowWidth="17880" windowHeight="14625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -298,13 +298,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Meiryo"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo"/>
@@ -328,8 +321,16 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Meiryo"/>
       <family val="3"/>
       <charset val="128"/>
@@ -521,15 +522,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="62">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -543,20 +544,20 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -565,21 +566,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -588,44 +586,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -633,13 +598,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,29 +607,71 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -966,681 +967,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="20"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="29" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="29" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="31"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="30"/>
       <c r="AA3" s="20"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="20"/>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>44353</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="25" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="27"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="26"/>
       <c r="AA4" s="20"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="20"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="26"/>
       <c r="AA5" s="20"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="20"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="27"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
       <c r="AA6" s="20"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="20"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
       <c r="AA7" s="20"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="27"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="26"/>
       <c r="AA8" s="20"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="20"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="26"/>
       <c r="AA9" s="20"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="27"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="26"/>
       <c r="AA10" s="20"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="26"/>
       <c r="AA11" s="20"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="20"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="26"/>
       <c r="AA12" s="20"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="20"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="26"/>
       <c r="AA13" s="20"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="26"/>
       <c r="AA14" s="20"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26"/>
       <c r="AA15" s="20"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
       <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="20"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
       <c r="AA17" s="20"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="20"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="26"/>
       <c r="AA18" s="20"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="20"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
       <c r="AA19" s="20"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="20"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="26"/>
       <c r="AA20" s="20"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="20"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="26"/>
       <c r="AA21" s="20"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="20"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="26"/>
       <c r="AA22" s="20"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="20"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26"/>
       <c r="AA23" s="20"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="20"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26"/>
       <c r="AA24" s="20"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="20"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="27"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="26"/>
       <c r="AA25" s="20"/>
     </row>
     <row r="26" spans="1:27">
@@ -1703,6 +1704,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1712,66 +1773,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1786,9 +1787,9 @@
   </sheetPr>
   <dimension ref="A1:BK25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:O4"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -1930,41 +1931,41 @@
       <c r="BJ2" s="16"/>
       <c r="BK2" s="16"/>
     </row>
-    <row r="3" spans="1:63" s="24" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="23" customFormat="1" ht="18.75">
       <c r="A3" s="22"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="35" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="37"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="56"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
       <c r="AE3" s="22"/>
@@ -2021,19 +2022,19 @@
       <c r="M4" s="45"/>
       <c r="N4" s="45"/>
       <c r="O4" s="45"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="27"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="37"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
@@ -2091,19 +2092,19 @@
       <c r="M5" s="45"/>
       <c r="N5" s="45"/>
       <c r="O5" s="45"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="27"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="37"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
@@ -2161,19 +2162,19 @@
       <c r="M6" s="45"/>
       <c r="N6" s="45"/>
       <c r="O6" s="45"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="27"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="37"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
@@ -2216,32 +2217,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="27"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="37"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
@@ -2284,32 +2285,32 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="27"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="37"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="16"/>
@@ -2352,32 +2353,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="27"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="37"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="16"/>
@@ -2420,32 +2421,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="27"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="37"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
@@ -2488,32 +2489,32 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="27"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="37"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="16"/>
@@ -2556,32 +2557,32 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="27"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="37"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
@@ -2624,32 +2625,32 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="27"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="37"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
@@ -2692,32 +2693,32 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="27"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="37"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
@@ -2760,32 +2761,32 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="27"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="37"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
@@ -2828,32 +2829,32 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="27"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="37"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
@@ -2896,32 +2897,32 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="27"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="37"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
@@ -2964,32 +2965,32 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="27"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="37"/>
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="16"/>
@@ -3032,32 +3033,32 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="27"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="37"/>
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="16"/>
@@ -3100,32 +3101,32 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="27"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="37"/>
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
       <c r="AE20" s="16"/>
@@ -3168,32 +3169,32 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="27"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="37"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
@@ -3236,32 +3237,32 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="27"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="37"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
@@ -3304,32 +3305,32 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="27"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="37"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
@@ -3372,32 +3373,32 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="27"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="37"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
       <c r="AE24" s="16"/>
@@ -3501,6 +3502,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="P23:AB23"/>
+    <mergeCell ref="P24:AB24"/>
+    <mergeCell ref="P11:AB11"/>
+    <mergeCell ref="P12:AB12"/>
+    <mergeCell ref="P13:AB13"/>
+    <mergeCell ref="P14:AB14"/>
+    <mergeCell ref="P15:AB15"/>
+    <mergeCell ref="P16:AB16"/>
+    <mergeCell ref="P17:AB17"/>
+    <mergeCell ref="P18:AB18"/>
+    <mergeCell ref="P19:AB19"/>
+    <mergeCell ref="P20:AB20"/>
+    <mergeCell ref="P21:AB21"/>
+    <mergeCell ref="P22:AB22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:O19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
     <mergeCell ref="C8:O8"/>
     <mergeCell ref="C9:O9"/>
     <mergeCell ref="C10:O10"/>
@@ -3517,34 +3546,6 @@
     <mergeCell ref="C4:O4"/>
     <mergeCell ref="C5:O5"/>
     <mergeCell ref="C6:O6"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="C11:O11"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="C13:O13"/>
-    <mergeCell ref="C14:O14"/>
-    <mergeCell ref="C15:O15"/>
-    <mergeCell ref="C16:O16"/>
-    <mergeCell ref="C17:O17"/>
-    <mergeCell ref="C18:O18"/>
-    <mergeCell ref="C19:O19"/>
-    <mergeCell ref="C20:O20"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="C22:O22"/>
-    <mergeCell ref="P23:AB23"/>
-    <mergeCell ref="P24:AB24"/>
-    <mergeCell ref="P11:AB11"/>
-    <mergeCell ref="P12:AB12"/>
-    <mergeCell ref="P13:AB13"/>
-    <mergeCell ref="P14:AB14"/>
-    <mergeCell ref="P15:AB15"/>
-    <mergeCell ref="P16:AB16"/>
-    <mergeCell ref="P17:AB17"/>
-    <mergeCell ref="P18:AB18"/>
-    <mergeCell ref="P19:AB19"/>
-    <mergeCell ref="P20:AB20"/>
-    <mergeCell ref="P21:AB21"/>
-    <mergeCell ref="P22:AB22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3567,8 +3568,8 @@
   </sheetPr>
   <dimension ref="A1:BK10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -3712,38 +3713,38 @@
     </row>
     <row r="3" spans="1:63">
       <c r="A3" s="16"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="48"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="34"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -3779,40 +3780,40 @@
     </row>
     <row r="4" spans="1:63">
       <c r="A4" s="16"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="55" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
@@ -3848,40 +3849,40 @@
     </row>
     <row r="5" spans="1:63">
       <c r="A5" s="16"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="54" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="53"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="37"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -3917,40 +3918,40 @@
     </row>
     <row r="6" spans="1:63">
       <c r="A6" s="16"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="54" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="53"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="37"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -3986,40 +3987,40 @@
     </row>
     <row r="7" spans="1:63">
       <c r="A7" s="16"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="54" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="53"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="37"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -4055,40 +4056,40 @@
     </row>
     <row r="8" spans="1:63" ht="32.25" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="53"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="37"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
@@ -4281,7 +4282,7 @@
   <dimension ref="A1:BK50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -4425,38 +4426,38 @@
     </row>
     <row r="3" spans="1:63">
       <c r="A3" s="16"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="48"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="34"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -4492,40 +4493,40 @@
     </row>
     <row r="4" spans="1:63">
       <c r="A4" s="16"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="55" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
@@ -4561,38 +4562,38 @@
     </row>
     <row r="5" spans="1:63">
       <c r="A5" s="16"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="48"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="34"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -4628,40 +4629,40 @@
     </row>
     <row r="6" spans="1:63">
       <c r="A6" s="16"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="54" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="53"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="37"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -4697,40 +4698,40 @@
     </row>
     <row r="7" spans="1:63">
       <c r="A7" s="16"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="54" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="53"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="37"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -4766,40 +4767,40 @@
     </row>
     <row r="8" spans="1:63" ht="31.5" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="53"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="37"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
@@ -4999,18 +5000,18 @@
     <row r="50" s="21" customFormat="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:AE6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:AE7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:AE8"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="J4:AE4"/>
     <mergeCell ref="J5:AE5"/>
     <mergeCell ref="J3:AE3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:AE6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="J7:AE7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:AE8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5026,7 +5027,7 @@
   <dimension ref="A1:BK50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B8" sqref="B8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -5170,40 +5171,40 @@
     </row>
     <row r="3" spans="1:63">
       <c r="A3" s="16"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="54" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="53"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="37"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -5239,40 +5240,40 @@
     </row>
     <row r="4" spans="1:63">
       <c r="A4" s="16"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="55" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
@@ -5308,40 +5309,40 @@
     </row>
     <row r="5" spans="1:63">
       <c r="A5" s="16"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="54" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="53"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="37"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -5377,40 +5378,40 @@
     </row>
     <row r="6" spans="1:63">
       <c r="A6" s="16"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="54" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="53"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="37"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -5446,40 +5447,40 @@
     </row>
     <row r="7" spans="1:63">
       <c r="A7" s="16"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="54" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="53"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="37"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -5515,40 +5516,40 @@
     </row>
     <row r="8" spans="1:63" ht="34.5" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="53"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="37"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
@@ -5748,17 +5749,17 @@
     <row r="50" s="21" customFormat="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J4:AE4"/>
+    <mergeCell ref="J3:AE3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="J8:AE8"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="J5:AE5"/>
     <mergeCell ref="J6:AE6"/>
     <mergeCell ref="J7:AE7"/>
-    <mergeCell ref="J4:AE4"/>
-    <mergeCell ref="J3:AE3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
@@ -5775,7 +5776,7 @@
   <dimension ref="A1:BK50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -5919,38 +5920,38 @@
     </row>
     <row r="3" spans="1:63">
       <c r="A3" s="16"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="53"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="37"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -5986,38 +5987,38 @@
     </row>
     <row r="4" spans="1:63">
       <c r="A4" s="16"/>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="53"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="37"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
@@ -6053,38 +6054,38 @@
     </row>
     <row r="5" spans="1:63">
       <c r="A5" s="16"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="53"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="37"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -6120,38 +6121,38 @@
     </row>
     <row r="6" spans="1:63">
       <c r="A6" s="16"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="53"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="37"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -6187,38 +6188,38 @@
     </row>
     <row r="7" spans="1:63">
       <c r="A7" s="16"/>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="53"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="37"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -6254,40 +6255,40 @@
     </row>
     <row r="8" spans="1:63">
       <c r="A8" s="16"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="54" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="53"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="37"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
@@ -6657,38 +6658,38 @@
     </row>
     <row r="3" spans="1:63" ht="14.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="61"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="42"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -6724,38 +6725,38 @@
     </row>
     <row r="4" spans="1:63" ht="14.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="61"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="42"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -6791,38 +6792,38 @@
     </row>
     <row r="5" spans="1:63" ht="14.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="61"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="42"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -6858,38 +6859,38 @@
     </row>
     <row r="6" spans="1:63" ht="14.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="61"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="42"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -6990,40 +6991,40 @@
     </row>
     <row r="8" spans="1:63" ht="14.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="59" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="61"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="42"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -7059,40 +7060,40 @@
     </row>
     <row r="9" spans="1:63" ht="14.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="63" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="61"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="42"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -7128,40 +7129,40 @@
     </row>
     <row r="10" spans="1:63" ht="14.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="59" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="61"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="42"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -9277,12 +9278,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J9:AE9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:AE10"/>
-    <mergeCell ref="J8:AE8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B8:I8"/>
     <mergeCell ref="Q6:AE6"/>
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="B3:P3"/>
@@ -9291,6 +9286,12 @@
     <mergeCell ref="Q4:AE4"/>
     <mergeCell ref="B5:P5"/>
     <mergeCell ref="Q5:AE5"/>
+    <mergeCell ref="J9:AE9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:AE10"/>
+    <mergeCell ref="J8:AE8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
